--- a/excel_files/partie_politique.xlsx
+++ b/excel_files/partie_politique.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mehdi\OneDrive\Bureau\mspr_data\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bdigital-my.sharepoint.com/personal/fnour_bt0d0000_w2k_bouyguestelecom_fr/Documents/Bureau/Projet DATA/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0706EB18-B7FC-4BCE-8B23-B8A169D820E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:40009_{0706EB18-B7FC-4BCE-8B23-B8A169D820E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{914BAD84-6E0F-49F0-9254-48DF5E4613DB}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -169,7 +169,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -210,7 +210,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -541,23 +541,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -574,7 +574,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -591,7 +591,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -608,7 +608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -642,7 +642,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -659,7 +659,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>25</v>
       </c>
@@ -676,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>28</v>
       </c>
@@ -693,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -710,7 +710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>35</v>
       </c>
@@ -727,7 +727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>38</v>
       </c>
@@ -744,7 +744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -761,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>45</v>
       </c>
@@ -782,4 +782,10 @@
   <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75" bottom="0.75" header="0.30000000000000004" footer="0.30000000000000004"/>
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{59934039-ae21-42ab-8848-d62b6328cef8}" enabled="1" method="Standard" siteId="{61ed2b68-f880-49d7-bbc9-9a645e9dcf7c}" removed="0"/>
+</clbl:labelList>
 </file>